--- a/pilotctl/core/sync.xlsx
+++ b/pilotctl/core/sync.xlsx
@@ -5,36 +5,17 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="links" sheetId="2" r:id="rId5"/>
-    <sheet name="org-groups" sheetId="3" r:id="rId6"/>
-    <sheet name="orgs" sheetId="4" r:id="rId7"/>
-    <sheet name="areas" sheetId="5" r:id="rId8"/>
-    <sheet name="locations" sheetId="6" r:id="rId9"/>
+    <sheet name="links" sheetId="1" r:id="rId4"/>
+    <sheet name="org-groups" sheetId="2" r:id="rId5"/>
+    <sheet name="orgs" sheetId="3" r:id="rId6"/>
+    <sheet name="areas" sheetId="4" r:id="rId7"/>
+    <sheet name="locations" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
-  <si>
-    <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
-  </si>
-  <si>
-    <t>Numbers Sheet Name</t>
-  </si>
-  <si>
-    <t>Numbers Table Name</t>
-  </si>
-  <si>
-    <t>Excel Worksheet Name</t>
-  </si>
-  <si>
-    <t>links</t>
-  </si>
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Org Group</t>
   </si>
@@ -51,7 +32,7 @@
     <t>OG:ACME</t>
   </si>
   <si>
-    <t>ORG:CONTOSO</t>
+    <t>OR:CONTOSO</t>
   </si>
   <si>
     <t>AR:LONDON</t>
@@ -69,7 +50,7 @@
     <t>LO:CHORLTON</t>
   </si>
   <si>
-    <t>ORG:TYRELL</t>
+    <t>OR:TYRELL</t>
   </si>
   <si>
     <t>LO:COWLEY</t>
@@ -81,9 +62,6 @@
     <t>LO:DIDSBURY</t>
   </si>
   <si>
-    <t>org-groups</t>
-  </si>
-  <si>
     <t>Key</t>
   </si>
   <si>
@@ -102,9 +80,6 @@
     <t>Generic testing organisation group</t>
   </si>
   <si>
-    <t>orgs</t>
-  </si>
-  <si>
     <t>Contoso Inc</t>
   </si>
   <si>
@@ -117,9 +92,6 @@
     <t>Testing Tyrell company</t>
   </si>
   <si>
-    <t>areas</t>
-  </si>
-  <si>
     <t>London</t>
   </si>
   <si>
@@ -130,9 +102,6 @@
   </si>
   <si>
     <t>Manchester Area</t>
-  </si>
-  <si>
-    <t>locations</t>
   </si>
   <si>
     <t>Chiswick</t>
@@ -160,19 +129,9 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -187,12 +146,6 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color indexed="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -204,7 +157,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,14 +170,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -234,16 +181,53 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -253,41 +237,35 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -313,9 +291,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="015e88b1"/>
-      <rgbColor rgb="01eef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -515,12 +491,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -553,10 +529,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -804,12 +780,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1096,7 +1072,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1124,10 +1100,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1378,124 +1354,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="33.6016" customWidth="1"/>
+    <col min="1" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="256" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="0.05" customHeight="1">
-      <c r="B3" t="s" s="1">
+    <row r="1" ht="13.65" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="13.65" customHeight="1">
+      <c r="A2" t="s" s="4">
         <v>4</v>
       </c>
+      <c r="B2" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="13.65" customHeight="1">
+      <c r="A3" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="13.65" customHeight="1">
+      <c r="A4" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="13.65" customHeight="1">
+      <c r="A5" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="13.65" customHeight="1">
+      <c r="A6" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="13.65" customHeight="1">
+      <c r="A7" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="13.65" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="13.65" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="4"/>
-      <c r="C14" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="4"/>
-      <c r="C16" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="4"/>
-      <c r="C18" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s" s="5">
-        <v>38</v>
-      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="13.65" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D10" location="'links'!R1C1" tooltip="" display="links"/>
-    <hyperlink ref="D12" location="'org-groups'!R1C1" tooltip="" display="org-groups"/>
-    <hyperlink ref="D14" location="'orgs'!R1C1" tooltip="" display="orgs"/>
-    <hyperlink ref="D16" location="'areas'!R1C1" tooltip="" display="areas"/>
-    <hyperlink ref="D18" location="'locations'!R1C1" tooltip="" display="locations"/>
-  </hyperlinks>
+  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000links</oddHeader>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1507,144 +1511,101 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="16.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.1719" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.8516" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="6" customWidth="1"/>
-    <col min="6" max="256" width="11.5" style="6" customWidth="1"/>
+    <col min="1" max="2" width="11.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.1719" style="5" customWidth="1"/>
+    <col min="4" max="5" width="11.5" style="5" customWidth="1"/>
+    <col min="6" max="256" width="11.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E1" s="8"/>
+      <c r="A1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="E2" s="8"/>
+      <c r="A2" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="E3" s="8"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="E5" s="8"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="E6" s="8"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="E7" s="8"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000links</oddHeader>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000org-groups</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
@@ -1658,101 +1619,108 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="11.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="29.1719" style="10" customWidth="1"/>
-    <col min="4" max="5" width="11.5" style="10" customWidth="1"/>
-    <col min="6" max="256" width="11.5" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.1719" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.8516" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29.1719" style="6" customWidth="1"/>
+    <col min="4" max="5" width="11.5" style="6" customWidth="1"/>
+    <col min="6" max="256" width="11.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="7">
+      <c r="A1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" ht="13.65" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="D2" s="3"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="13.65" customHeight="1">
+      <c r="A3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="C1" t="s" s="7">
+      <c r="C3" t="s" s="4">
         <v>24</v>
       </c>
-      <c r="D1" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s" s="9">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000org-groups</oddHeader>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000orgs</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
@@ -1760,104 +1728,114 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.1719" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.8516" style="11" customWidth="1"/>
-    <col min="3" max="3" width="29.1719" style="11" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="11" customWidth="1"/>
-    <col min="5" max="256" width="11.5" style="11" customWidth="1"/>
+    <col min="1" max="1" width="17.1719" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.1719" style="10" customWidth="1"/>
+    <col min="4" max="5" width="11.5" style="10" customWidth="1"/>
+    <col min="6" max="256" width="11.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s" s="7">
+      <c r="A1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="13.65" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="D2" s="8"/>
+      <c r="C2" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="D3" s="8"/>
+      <c r="A3" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000orgs</oddHeader>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000areas</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
@@ -1871,230 +1849,115 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.1719" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.1719" style="12" customWidth="1"/>
-    <col min="4" max="5" width="11.5" style="12" customWidth="1"/>
-    <col min="6" max="256" width="11.5" style="12" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="23.8516" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="11" customWidth="1"/>
+    <col min="6" max="256" width="11.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="E1" s="8"/>
+      <c r="A1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="9">
+      <c r="A2" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="13.65" customHeight="1">
+      <c r="A3" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="13.65" customHeight="1">
+      <c r="A4" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="13.65" customHeight="1">
+      <c r="A5" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B2" t="s" s="9">
+      <c r="B5" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="13.65" customHeight="1">
+      <c r="A6" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="13.65" customHeight="1">
+      <c r="A7" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s" s="4">
         <v>34</v>
       </c>
-      <c r="C2" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s" s="9">
-        <v>37</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000areas</oddHeader>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="14.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="23.8516" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="13" customWidth="1"/>
-    <col min="6" max="256" width="11.5" style="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>42</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>44</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
